--- a/Vapeix_Shield1.0.1/BOM(Bill of Materials)/BOM_orig.xlsx
+++ b/Vapeix_Shield1.0.1/BOM(Bill of Materials)/BOM_orig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="148">
   <si>
     <t>0603</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Adafruit Accessories 2.1mm DC Barrel Jack Breadboard Friendly</t>
   </si>
   <si>
-    <t>Header, 100mil, 3x1, Tin plated, TH</t>
-  </si>
-  <si>
     <t>HSMF-C114</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Adafruit</t>
   </si>
   <si>
-    <t>Sullins Connector Solutions</t>
-  </si>
-  <si>
     <t>OSEPP</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
   </si>
   <si>
     <t>Samtec Inc.</t>
-  </si>
-  <si>
-    <t>S1012E-03-ND</t>
   </si>
   <si>
     <t>Arduino Female Stackable Header - 10 pin</t>
@@ -520,6 +511,9 @@
   </si>
   <si>
     <t>MMBT2222ALT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>Order Number</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1045,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1504950" cy="4141"/>
@@ -1376,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,28 +1383,30 @@
     <col min="3" max="3" width="56.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="54.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="27" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="28" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>11</v>
       </c>
@@ -1419,108 +1415,116 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="27"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="30"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="34"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="J6" s="34"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="J7" s="34"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="34"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:10" s="24" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="34"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" s="24" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>10</v>
       </c>
@@ -1534,25 +1538,28 @@
         <v>7</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="K10" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="49" t="s">
         <v>14</v>
       </c>
@@ -1560,32 +1567,33 @@
         <v>12</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="40">
+        <v>115</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="40">
         <v>3</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="41">
+      <c r="I11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="41">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="J11" s="42">
-        <f t="shared" ref="J11:J44" si="0">G11*I11</f>
+      <c r="K11" s="42">
+        <f t="shared" ref="K11:K43" si="0">H11*J11</f>
         <v>0.22949999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>2</v>
       </c>
@@ -1593,32 +1601,33 @@
         <v>13</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="40">
+        <v>116</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="40">
         <v>1</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="41">
+      <c r="I12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="41">
         <v>0.1</v>
       </c>
-      <c r="J12" s="42">
+      <c r="K12" s="42">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="49" t="s">
         <v>17</v>
       </c>
@@ -1626,32 +1635,33 @@
         <v>15</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="40">
+        <v>117</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="40">
         <v>1</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="41">
+      <c r="I13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="41">
         <v>0.15</v>
       </c>
-      <c r="J13" s="42">
+      <c r="K13" s="42">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>1</v>
       </c>
@@ -1659,98 +1669,101 @@
         <v>18</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="40">
+        <v>118</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="40">
         <v>1</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="41">
+      <c r="I14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="41">
         <v>0.24</v>
       </c>
-      <c r="J14" s="42">
+      <c r="K14" s="42">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="40">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="K15" s="42">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="40">
-        <v>2</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="41">
-        <v>0.16</v>
-      </c>
-      <c r="J15" s="42">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="C16" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="40">
+        <v>142</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="40">
         <v>3</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="41">
+      <c r="I16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="41">
         <v>0.1</v>
       </c>
-      <c r="J16" s="42">
+      <c r="K16" s="42">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
         <v>19</v>
       </c>
@@ -1758,32 +1771,33 @@
         <v>33</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="40">
+        <v>120</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="40">
         <v>1</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="41">
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="41">
         <v>0.1</v>
       </c>
-      <c r="J17" s="42">
+      <c r="K17" s="42">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="49" t="s">
         <v>20</v>
       </c>
@@ -1791,32 +1805,33 @@
         <v>21</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="40">
+        <v>119</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="40">
         <v>1</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="41">
+      <c r="I18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="41">
         <v>0.1</v>
       </c>
-      <c r="J18" s="42">
+      <c r="K18" s="42">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
         <v>27</v>
       </c>
@@ -1824,32 +1839,33 @@
         <v>22</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="40">
+        <v>121</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="40">
         <v>2</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="41">
+      <c r="I19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="41">
         <v>0.1</v>
       </c>
-      <c r="J19" s="42">
+      <c r="K19" s="42">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
         <v>24</v>
       </c>
@@ -1857,32 +1873,33 @@
         <v>23</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="40">
+        <v>123</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="40">
         <v>4</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="41">
+      <c r="I20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="41">
         <v>0.1</v>
       </c>
-      <c r="J20" s="42">
+      <c r="K20" s="42">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
         <v>25</v>
       </c>
@@ -1890,65 +1907,67 @@
         <v>26</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="40">
+        <v>124</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="40">
         <v>1</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="41">
+      <c r="I21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="41">
         <v>0.1</v>
       </c>
-      <c r="J21" s="42">
+      <c r="K21" s="42">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="40">
+        <v>128</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="40">
         <v>1</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="41">
+      <c r="I22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="41">
         <v>0.1</v>
       </c>
-      <c r="J22" s="42">
+      <c r="K22" s="42">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="49" t="s">
         <v>29</v>
       </c>
@@ -1956,32 +1975,33 @@
         <v>30</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="40">
+        <v>125</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="40">
         <v>1</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="41">
+      <c r="I23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="41">
         <v>0.1</v>
       </c>
-      <c r="J23" s="42">
+      <c r="K23" s="42">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49" t="s">
         <v>31</v>
       </c>
@@ -1989,32 +2009,33 @@
         <v>51</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="40">
+        <v>126</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="40">
         <v>12</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="41">
+      <c r="I24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="41">
         <v>0.1</v>
       </c>
-      <c r="J24" s="42">
+      <c r="K24" s="42">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="49" t="s">
         <v>32</v>
       </c>
@@ -2022,32 +2043,33 @@
         <v>300</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="40">
+        <v>122</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="40">
         <v>5</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="41">
+      <c r="I25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="41">
         <v>0.1</v>
       </c>
-      <c r="J25" s="42">
+      <c r="K25" s="42">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="50" t="s">
         <v>34</v>
       </c>
@@ -2057,26 +2079,27 @@
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="40">
+        <v>127</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="40">
         <v>1</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="41">
+      <c r="I26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="41">
         <v>9.9700000000000006</v>
       </c>
-      <c r="J26" s="42">
+      <c r="K26" s="42">
         <f t="shared" si="0"/>
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="50" t="s">
         <v>36</v>
       </c>
@@ -2086,26 +2109,27 @@
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="40">
+        <v>131</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="40">
         <v>1</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="41">
+      <c r="I27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="41">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J27" s="42">
+      <c r="K27" s="42">
         <f t="shared" si="0"/>
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="50" t="s">
         <v>38</v>
       </c>
@@ -2115,26 +2139,27 @@
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="40">
+        <v>132</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="40">
         <v>5</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="41">
+      <c r="I28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="41">
         <v>0.5</v>
       </c>
-      <c r="J28" s="42">
+      <c r="K28" s="42">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="50" t="s">
         <v>40</v>
       </c>
@@ -2144,26 +2169,27 @@
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="40">
+        <v>133</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="40">
         <v>1</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="41">
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="41">
         <v>0.36</v>
       </c>
-      <c r="J29" s="42">
+      <c r="K29" s="42">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="51" t="s">
         <v>42</v>
       </c>
@@ -2173,26 +2199,27 @@
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="40">
+        <v>134</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="40">
         <v>4</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="41">
+      <c r="I30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="41">
         <v>0.37</v>
       </c>
-      <c r="J30" s="42">
+      <c r="K30" s="42">
         <f t="shared" si="0"/>
         <v>1.48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="51" t="s">
         <v>44</v>
       </c>
@@ -2202,26 +2229,27 @@
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="40">
+        <v>135</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="40">
         <v>1</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="41">
+      <c r="I31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="41">
         <v>0.22</v>
       </c>
-      <c r="J31" s="42">
+      <c r="K31" s="42">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51" t="s">
         <v>46</v>
       </c>
@@ -2231,55 +2259,57 @@
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="40">
+        <v>136</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="40">
         <v>2</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="41">
+      <c r="I32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="41">
         <v>0.17</v>
       </c>
-      <c r="J32" s="42">
+      <c r="K32" s="42">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="40">
+        <v>137</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="40">
         <v>6</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="41">
+      <c r="I33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="41">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J33" s="42">
+      <c r="K33" s="42">
         <f t="shared" si="0"/>
         <v>12.18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="51" t="s">
         <v>48</v>
       </c>
@@ -2289,338 +2319,321 @@
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="40">
+        <v>138</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="40">
         <v>1</v>
       </c>
-      <c r="H34" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="41">
+      <c r="I34" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="41">
         <v>0.96</v>
       </c>
-      <c r="J34" s="42">
+      <c r="K34" s="42">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
-        <v>94</v>
+    <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="40">
+        <v>140</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="40">
         <v>1</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="41">
-        <v>0.39</v>
-      </c>
-      <c r="J35" s="42">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="41">
+        <v>0.42</v>
+      </c>
+      <c r="K35" s="42">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="40">
-        <v>1</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="41">
-        <v>0.42</v>
-      </c>
-      <c r="J36" s="42">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="40">
+        <v>2</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="K36" s="42">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="17" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="40">
-        <v>2</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="41">
+      <c r="F37" s="18"/>
+      <c r="G37" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="40">
+        <v>1</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="41">
         <v>1.75</v>
       </c>
-      <c r="J37" s="42">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K37" s="42">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="40">
+      <c r="F38" s="18"/>
+      <c r="G38" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="40">
         <v>1</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="41">
+      <c r="I38" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="41">
         <v>1.75</v>
       </c>
-      <c r="J38" s="42">
+      <c r="K38" s="42">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="17" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="40">
+      <c r="E39" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="40">
         <v>1</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="I39" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="K39" s="42">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="51" t="s">
         <v>97</v>
-      </c>
-      <c r="I39" s="41">
-        <v>1.75</v>
-      </c>
-      <c r="J39" s="42">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="51" t="s">
-        <v>57</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="17" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="40">
+        <v>139</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="40">
         <v>1</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="41">
-        <v>0.43</v>
-      </c>
-      <c r="J40" s="42">
-        <f t="shared" si="0"/>
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="K40" s="42">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="51" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="17" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="40">
+        <v>144</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="40">
         <v>1</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="41">
-        <v>0.74</v>
-      </c>
-      <c r="J41" s="42">
-        <f t="shared" si="0"/>
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="41">
+        <v>0.26</v>
+      </c>
+      <c r="K41" s="42">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="40">
-        <v>1</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" s="41">
-        <v>0.26</v>
-      </c>
-      <c r="J42" s="42">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="40">
+        <v>3</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K42" s="42">
+        <f t="shared" si="0"/>
+        <v>0.86999999999999988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="17" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="40">
-        <v>3</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="41">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J43" s="42">
-        <f t="shared" si="0"/>
-        <v>0.86999999999999988</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="40">
+        <v>146</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="40">
         <v>2</v>
       </c>
-      <c r="H44" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" s="41">
+      <c r="I43" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="41">
         <v>0.1</v>
       </c>
-      <c r="J44" s="42">
+      <c r="K43" s="42">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="39">
-        <f>SUM(G11:G44)</f>
-        <v>75</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="44">
-        <f>SUM(J11:J44)</f>
-        <v>47.229500000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:11" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="39">
+        <f>SUM(H11:H43)</f>
+        <v>74</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="44">
+        <f>SUM(K11:K43)</f>
+        <v>46.839500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
